--- a/biology/Zoologie/Acraea_terpsicore/Acraea_terpsicore.xlsx
+++ b/biology/Zoologie/Acraea_terpsicore/Acraea_terpsicore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Papillon fauve d'Asie
-Acraea terpsicore, le papillon fauve d'Asie[1], est une espèce d'insectes Lépidoptères de la famille des Nymphalidae, la sous-famille des Heliconiinae et du genre Acraea.
+Acraea terpsicore, le papillon fauve d'Asie, est une espèce d'insectes Lépidoptères de la famille des Nymphalidae, la sous-famille des Heliconiinae et du genre Acraea.
 Il fait partie des 4 espèces d'Acraea (Acraea) indo-australiennes.
 </t>
         </is>
@@ -513,13 +525,13 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Papilio terpsicore Carl von Linné, 1758
-Synonymes : Papilio violae (Fabricius), 1793 [2], Acraea violae (Fabricius, 1793)
+Synonymes : Papilio violae (Fabricius), 1793 , Acraea violae (Fabricius, 1793)
 Acraea (Acraea ) terpsicore fait partie du sous-genre nominatif. Phylogénétiquement, il se place dans le groupe de neobule, proche de A. horta, espèce-type des Acraea. Avec les espèces voisines A. andromaqua, A. moluccana et A. meyeri, ils forment l'extension indo-australienne du groupe, essentiellement afrotropical.
-Noms vernaculaires
-Acraea terpsicore se nomme en anglais Tawny Coster.
 </t>
         </is>
       </c>
@@ -545,10 +557,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acraea terpsicore se nomme en anglais Tawny Coster.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Acraea_terpsicore</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acraea_terpsicore</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont de grands papillons de couleur orange ornés de quelques points marron et d'une étroite bordure marron ornée de points clairs sur les postérieures. Les mâles sont plus colorés que les femelles, plus claires. Le revers des antérieures est orange hyalin avec les mêmes taches et bordure marron, le revers des postérieures est beige avec une bordure de taches blanches cerclées de marron très foncé.
 			Acraea terpsicore.
@@ -557,7 +608,43 @@
 			Acraea terpsicore.
 			Acraea terpsicore dans le parc national de Komodo en Indonésie.
 			Acraea terpsicore femelle dans le อุทยานแห่งชาติสิรินาถ (th), dans la province de Phuket, Thaïlande.
-Chenille
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Acraea_terpsicore</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acraea_terpsicore</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Œufs d'Acraea terpsicore.
 			Œufs d'Acraea terpsicore.
 			Chenilles d'Acraea terpsicore sur une feuille de Passiflora foetida.
@@ -570,71 +657,183 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Acraea_terpsicore</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Acraea_terpsicore</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Acraea_terpsicore</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acraea_terpsicore</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol
-Les périodes de vol suivant les lieux sont fonction des flux migratoires.
-Plantes-hôtes
-Ses plantes-hôtes sont  des Passifloraceae (Adenia hondala, Modecca palmata, Passiflora foetida et Passiflora tuberosa)[2].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Acraea_terpsicore</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Acraea_terpsicore</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les périodes de vol suivant les lieux sont fonction des flux migratoires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Acraea_terpsicore</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acraea_terpsicore</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes-hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes-hôtes sont  des Passifloraceae (Adenia hondala, Modecca palmata, Passiflora foetida et Passiflora tuberosa).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Acraea_terpsicore</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acraea_terpsicore</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Acraea terpsicore est présent en Inde et au Sri Lanka (Ceylan)[2], à Kuala Lumpur en Malaisie, en Thaïlande et dans la péninsule indochinoise.
-Biotope
-Il habite aussi bien les plaines que les collines.
-Protection
-Pas de statut de protection particulier.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acraea terpsicore est présent en Inde et au Sri Lanka (Ceylan), à Kuala Lumpur en Malaisie, en Thaïlande et dans la péninsule indochinoise.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Acraea_terpsicore</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acraea_terpsicore</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il habite aussi bien les plaines que les collines.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Acraea_terpsicore</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acraea_terpsicore</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
